--- a/gerber + drill/2021-12-07/bom.xlsx
+++ b/gerber + drill/2021-12-07/bom.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
   <si>
     <t xml:space="preserve">Board</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t xml:space="preserve">DC cable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20AWG</t>
   </si>
   <si>
     <t xml:space="preserve">Rotary encoder</t>
@@ -296,7 +299,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="[$-409]@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -334,6 +337,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -423,7 +433,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -472,7 +482,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -596,7 +614,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -977,27 +995,45 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" customFormat="false" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="s">
         <v>59</v>
       </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+  </mergeCells>
   <conditionalFormatting sqref="A3:D27">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>MOD(ROW(),2)=1</formula>
@@ -1030,12 +1066,12 @@
     <hyperlink ref="D26" r:id="rId24" display="lcsc.com"/>
     <hyperlink ref="D27" r:id="rId25" display="lcsc.com"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -1048,197 +1084,199 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.93"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>67</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="n">
+      <c r="A7" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>80</v>
+      <c r="A10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>82</v>
+      <c r="B11" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>83</v>
+      <c r="B12" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>84</v>
+      <c r="A13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>86</v>
+      <c r="A14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1265,12 +1303,12 @@
     <hyperlink ref="D13" r:id="rId11" display="aliexpress.com"/>
     <hyperlink ref="D14" r:id="rId12" display="aliexpress.com"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>